--- a/Data Files/userdata.xlsx
+++ b/Data Files/userdata.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsathavara\Documents\GitHub\QA_TestCases\GACustomAutomation\userInfoData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4E8176-BA08-4171-825A-CA46FCC7F83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4C4E8176-BA08-4171-825A-CA46FCC7F83D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78409FC0-E09E-438F-A8F8-5AA0487A1AF5}"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="57480" xr2:uid="{78409FC0-E09E-438F-A8F8-5AA0487A1AF5}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
   <si>
     <t>PSHAGHZOIA</t>
   </si>
@@ -122,12 +122,52 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Joe Fitxgerald</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Carol Smith</t>
+  </si>
+  <si>
+    <t>Andrew V. Costa</t>
+  </si>
+  <si>
+    <t>Jamia Brown-Lockett</t>
+  </si>
+  <si>
+    <t>Melissa L. Durkin</t>
+  </si>
+  <si>
+    <t>Christopher M. Martin</t>
+  </si>
+  <si>
+    <t>Crossload S. System Generated</t>
+  </si>
+  <si>
+    <t>John P. Aguilar</t>
+  </si>
+  <si>
+    <t>Robert Honeycut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,22 +207,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -199,10 +239,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -237,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -289,7 +329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -400,21 +440,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -431,7 +471,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -483,15 +523,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A222E510-3077-42EF-BBB0-AC064D389665}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A222E510-3077-42EF-BBB0-AC064D389665}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
@@ -499,10 +539,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -529,6 +569,15 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -537,6 +586,15 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -545,6 +603,15 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -553,6 +620,15 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -561,6 +637,15 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -569,6 +654,15 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -577,54 +671,126 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="15.5" r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="15.5" r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="15.5" r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="15.5" r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="15.5" r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="15.5" r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row ht="15.5" r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -633,9 +799,18 @@
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Files/userdata.xlsx
+++ b/Data Files/userdata.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="65">
   <si>
     <t>PSHAGHZOIA</t>
   </si>
@@ -161,6 +161,75 @@
   </si>
   <si>
     <t>Robert Honeycut</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Testing Admin</t>
+  </si>
+  <si>
+    <t>Aida Arceo</t>
+  </si>
+  <si>
+    <t>Alicia J. Krumme</t>
+  </si>
+  <si>
+    <t>Alicia Krumme</t>
+  </si>
+  <si>
+    <t>Craig Morton</t>
+  </si>
+  <si>
+    <t>Craig A. Morton</t>
+  </si>
+  <si>
+    <t>Anna Daniyelyan</t>
+  </si>
+  <si>
+    <t>Elliott P. Gleason</t>
+  </si>
+  <si>
+    <t>Elliot P. Gleason</t>
+  </si>
+  <si>
+    <t>Socorro D. Arana</t>
+  </si>
+  <si>
+    <t>Areda Williams</t>
+  </si>
+  <si>
+    <t>Khan L. Adams</t>
+  </si>
+  <si>
+    <t>Khan Adams</t>
+  </si>
+  <si>
+    <t>AFG Auditor</t>
+  </si>
+  <si>
+    <t>Auditor Auditor</t>
+  </si>
+  <si>
+    <t>Bob Baudisch</t>
+  </si>
+  <si>
+    <t>John Wheeler</t>
+  </si>
+  <si>
+    <t>John Wheeler (UST)</t>
+  </si>
+  <si>
+    <t>Martin R. Sayre</t>
+  </si>
+  <si>
+    <t>Teri L. Bewley</t>
+  </si>
+  <si>
+    <t>Teri Bewley (E&amp;S-Cas)</t>
+  </si>
+  <si>
+    <t>Bill Douglas</t>
   </si>
 </sst>
 </file>
@@ -570,13 +639,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -587,10 +656,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -604,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -621,10 +690,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -638,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -655,10 +724,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -672,13 +741,13 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row ht="15.5" r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -689,13 +758,13 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row ht="15.5" r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -706,10 +775,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
@@ -723,10 +792,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -738,13 +807,13 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row ht="15.5" r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -753,10 +822,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -768,10 +837,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -783,10 +852,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
@@ -800,10 +869,10 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
